--- a/2024-Stock.xlsx
+++ b/2024-Stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -672,14 +672,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1044,12 +1041,57 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>股指及成交量!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>股指及成交量!$C$2:$C$8</c:f>
+              <c:f>股指及成交量!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>6734</c:v>
                 </c:pt>
@@ -1067,6 +1109,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>7121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,11 +1127,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="598629808"/>
-        <c:axId val="460704058"/>
+        <c:axId val="360080066"/>
+        <c:axId val="697484575"/>
       </c:barChart>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1112,29 +1157,62 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>股指及成交量!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>股指及成交量!$B$2:$B$8</c:f>
+              <c:f>股指及成交量!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2954</c:v>
                 </c:pt>
@@ -1152,6 +1230,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,19 +1247,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
+        <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="356553224"/>
-        <c:axId val="373188262"/>
+        <c:axId val="678550958"/>
+        <c:axId val="777130111"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="356553224"/>
+        <c:axId val="678550958"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1213,15 +1294,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373188262"/>
+        <c:crossAx val="777130111"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373188262"/>
+        <c:axId val="777130111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,12 +1351,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356553224"/>
+        <c:crossAx val="678550958"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="598629808"/>
+      <c:dateAx>
+        <c:axId val="360080066"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,15 +1384,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460704058"/>
+        <c:crossAx val="697484575"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="460704058"/>
+        <c:axId val="697484575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,7 +1427,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598629808"/>
+        <c:crossAx val="360080066"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1504,12 +1584,57 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>资金流向!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金流向!$B$2:$B$7</c:f>
+              <c:f>资金流向!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-233</c:v>
                 </c:pt>
@@ -1527,6 +1652,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,12 +1687,57 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>资金流向!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>资金流向!$C$2:$C$7</c:f>
+              <c:f>资金流向!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>-39</c:v>
                 </c:pt>
@@ -1582,6 +1755,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-30.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1597,17 +1773,17 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="911758679"/>
-        <c:axId val="913253706"/>
+        <c:axId val="148163252"/>
+        <c:axId val="544654104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="911758679"/>
+        <c:axId val="148163252"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1642,15 +1818,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="913253706"/>
+        <c:crossAx val="544654104"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="913253706"/>
+        <c:axId val="544654104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,7 +1875,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="911758679"/>
+        <c:crossAx val="148163252"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1880,6 +2056,9 @@
                 <c:pt idx="5">
                   <c:v>90.7</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1953,6 +2132,9 @@
                 <c:pt idx="5">
                   <c:v>59</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2010,6 +2192,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2362,12 +2547,57 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>上涨下跌数量!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>上涨下跌数量!$D$2:$D$8</c:f>
+              <c:f>上涨下跌数量!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>36.7</c:v>
                 </c:pt>
@@ -2385,6 +2615,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>85.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2400,8 +2633,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="884594338"/>
-        <c:axId val="156731841"/>
+        <c:axId val="797032318"/>
+        <c:axId val="877375412"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2435,12 +2668,57 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>上涨下跌数量!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>上涨下跌数量!$B$2:$B$8</c:f>
+              <c:f>上涨下跌数量!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1876</c:v>
                 </c:pt>
@@ -2458,6 +2736,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2493,12 +2774,57 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>上涨下跌数量!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>上涨下跌数量!$C$2:$C$8</c:f>
+              <c:f>上涨下跌数量!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>3236</c:v>
                 </c:pt>
@@ -2516,6 +2842,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3753</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2532,17 +2861,17 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="43335099"/>
-        <c:axId val="480115131"/>
+        <c:axId val="209120624"/>
+        <c:axId val="534298337"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43335099"/>
+        <c:axId val="209120624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2577,15 +2906,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="480115131"/>
+        <c:crossAx val="534298337"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="480115131"/>
+        <c:axId val="534298337"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,12 +2963,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43335099"/>
+        <c:crossAx val="209120624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="884594338"/>
+      <c:dateAx>
+        <c:axId val="797032318"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,15 +2996,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156731841"/>
+        <c:crossAx val="877375412"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="156731841"/>
+        <c:axId val="877375412"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +3039,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="884594338"/>
+        <c:crossAx val="797032318"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2868,12 +3196,51 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>期货!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期货!$D$2:$D$5</c:f>
+              <c:f>期货!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>6509</c:v>
                 </c:pt>
@@ -2885,6 +3252,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>909</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2900,8 +3270,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="347632354"/>
-        <c:axId val="119492435"/>
+        <c:axId val="854031742"/>
+        <c:axId val="443660613"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2935,12 +3305,51 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>期货!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期货!$B$2:$B$5</c:f>
+              <c:f>期货!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>163819</c:v>
                 </c:pt>
@@ -2952,6 +3361,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>171323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2987,12 +3399,51 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>期货!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>期货!$C$2:$C$5</c:f>
+              <c:f>期货!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>170328</c:v>
                 </c:pt>
@@ -3004,6 +3455,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>154685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>155594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3020,17 +3474,17 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="538880084"/>
-        <c:axId val="200965624"/>
+        <c:axId val="122126410"/>
+        <c:axId val="788317142"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="538880084"/>
+        <c:axId val="122126410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3065,15 +3519,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200965624"/>
+        <c:crossAx val="788317142"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200965624"/>
+        <c:axId val="788317142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3122,12 +3576,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538880084"/>
+        <c:crossAx val="122126410"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="347632354"/>
+      <c:dateAx>
+        <c:axId val="854031742"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,15 +3609,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119492435"/>
+        <c:crossAx val="443660613"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="119492435"/>
+        <c:axId val="443660613"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3199,7 +3652,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347632354"/>
+        <c:crossAx val="854031742"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6097,25 +6550,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>568325</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4076700" y="396875"/>
-        <a:ext cx="7045325" cy="4685665"/>
+        <a:off x="4391025" y="130175"/>
+        <a:ext cx="7301865" cy="4752340"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6133,24 +6586,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457835</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>26035</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>234950</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4763135" y="1054735"/>
-        <a:ext cx="6635115" cy="3894455"/>
+        <a:off x="4800600" y="568325"/>
+        <a:ext cx="8369300" cy="4342765"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6202,25 +6655,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>72390</xdr:colOff>
+      <xdr:colOff>492125</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4800600" y="1139825"/>
-        <a:ext cx="7035165" cy="3686175"/>
+        <a:off x="4191000" y="216535"/>
+        <a:ext cx="8064500" cy="4732655"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6237,25 +6690,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>29210</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>634365</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3715385" y="282575"/>
-        <a:ext cx="8148955" cy="4857115"/>
+        <a:off x="4505325" y="759460"/>
+        <a:ext cx="8702675" cy="4293870"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6518,13 +6971,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
   </cols>
@@ -6596,19 +7049,50 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>45302</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>2886</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>7121</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
         <v>45303</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2881</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>45310</v>
       </c>
     </row>
   </sheetData>
@@ -6651,13 +7135,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="2" max="2" width="22.375" customWidth="1"/>
@@ -6731,19 +7215,50 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>45302</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>95.8</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>42.3</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="5">
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
         <v>45303</v>
+      </c>
+      <c r="B8" s="3">
+        <v>-221</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-30.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>45310</v>
       </c>
     </row>
   </sheetData>
@@ -6786,13 +7301,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
   </cols>
@@ -6882,22 +7397,56 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>45302</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>59</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>90.7</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>45303</v>
+      </c>
+      <c r="B8" s="3">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3">
+        <v>75.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>45310</v>
       </c>
     </row>
   </sheetData>
@@ -6910,13 +7459,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D8"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
   </cols>
@@ -7006,23 +7555,72 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>45302</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>4469</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>760</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>85.4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>45303</v>
       </c>
+      <c r="B8" s="3">
+        <v>1401</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3753</v>
+      </c>
+      <c r="D8" s="3">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7034,13 +7632,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="3" max="3" width="11" customWidth="1"/>
@@ -7117,6 +7715,45 @@
         <v>3362</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B6" s="3">
+        <v>154685</v>
+      </c>
+      <c r="C6" s="3">
+        <v>155594</v>
+      </c>
+      <c r="D6" s="3">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2">
+        <v>45306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>45310</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/2024-Stock.xlsx
+++ b/2024-Stock.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
     <sheet name="资金流向" sheetId="5" r:id="rId2"/>
     <sheet name="涨跌停数量" sheetId="3" r:id="rId3"/>
     <sheet name="上涨下跌数量" sheetId="4" r:id="rId4"/>
-    <sheet name="期货" sheetId="6" r:id="rId5"/>
+    <sheet name="账户" sheetId="7" r:id="rId5"/>
+    <sheet name="期货" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -50,13 +51,19 @@
     <t>下跌数</t>
   </si>
   <si>
+    <t>日初始资金</t>
+  </si>
+  <si>
+    <t>日收盘资金</t>
+  </si>
+  <si>
+    <t>盈亏</t>
+  </si>
+  <si>
     <t>初始资金</t>
   </si>
   <si>
     <t>结束资金</t>
-  </si>
-  <si>
-    <t>盈亏</t>
   </si>
 </sst>
 </file>
@@ -6974,7 +6981,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="A9" sqref="A9:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7063,10 +7070,10 @@
       <c r="A8" s="2">
         <v>45303</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>2881</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>6767</v>
       </c>
     </row>
@@ -7137,7 +7144,7 @@
   <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -7229,10 +7236,10 @@
       <c r="A8" s="4">
         <v>45303</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>-221</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>-30.3</v>
       </c>
     </row>
@@ -7414,13 +7421,13 @@
       <c r="A8" s="2">
         <v>45303</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>28</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>75.6</v>
       </c>
     </row>
@@ -7572,13 +7579,13 @@
       <c r="A8" s="2">
         <v>45303</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>1401</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>3753</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>27.2</v>
       </c>
     </row>
@@ -7586,41 +7593,41 @@
       <c r="A9" s="2">
         <v>45306</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>45307</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>45308</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>45309</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>45310</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7630,6 +7637,70 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B2" s="3">
+        <v>191166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2">
+        <v>45308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2">
+        <v>45310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E11"/>
@@ -7649,10 +7720,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>12</v>
@@ -7719,13 +7790,13 @@
       <c r="A6" s="2">
         <v>45303</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>154685</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>155594</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>909</v>
       </c>
     </row>

--- a/2024-Stock.xlsx
+++ b/2024-Stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -1120,6 +1120,9 @@
                 <c:pt idx="6">
                   <c:v>6767</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>6109</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1240,6 +1243,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,6 +1318,8 @@
         <c:axId val="777130111"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3220"/>
+          <c:min val="2620"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1401,6 +1409,7 @@
         <c:axId val="697484575"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="18000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1663,6 +1672,9 @@
                 <c:pt idx="6">
                   <c:v>-221</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>-76.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1765,6 +1777,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-30.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,12 +2054,57 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>涨跌停数量!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>涨跌停数量!$D$2:$D$8</c:f>
+              <c:f>涨跌停数量!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>80</c:v>
                 </c:pt>
@@ -2065,6 +2125,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>75.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2080,8 +2143,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="487982433"/>
-        <c:axId val="236686631"/>
+        <c:axId val="261604076"/>
+        <c:axId val="462470683"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2115,12 +2178,57 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>涨跌停数量!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>涨跌停数量!$B$2:$B$8</c:f>
+              <c:f>涨跌停数量!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>46</c:v>
                 </c:pt>
@@ -2141,6 +2249,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2176,12 +2287,57 @@
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>涨跌停数量!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>涨跌停数量!$C$2:$C$8</c:f>
+              <c:f>涨跌停数量!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -2202,6 +2358,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,17 +2377,17 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="256099257"/>
-        <c:axId val="775279064"/>
+        <c:axId val="232298203"/>
+        <c:axId val="488034121"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256099257"/>
+        <c:axId val="232298203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2263,15 +2422,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="775279064"/>
+        <c:crossAx val="488034121"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="775279064"/>
+        <c:axId val="488034121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,12 +2479,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256099257"/>
+        <c:crossAx val="232298203"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:catAx>
-        <c:axId val="487982433"/>
+      <c:dateAx>
+        <c:axId val="261604076"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2353,15 +2512,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="236686631"/>
+        <c:crossAx val="462470683"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="236686631"/>
+        <c:axId val="462470683"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2555,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487982433"/>
+        <c:crossAx val="261604076"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2626,6 +2784,9 @@
                 <c:pt idx="6">
                   <c:v>27.2</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2640,8 +2801,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="797032318"/>
-        <c:axId val="877375412"/>
+        <c:axId val="692530587"/>
+        <c:axId val="429936346"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2747,6 +2908,9 @@
                 <c:pt idx="6">
                   <c:v>1401</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>1991</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2853,6 +3017,9 @@
                 <c:pt idx="6">
                   <c:v>3753</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>3115</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2868,11 +3035,11 @@
         </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
-        <c:axId val="209120624"/>
-        <c:axId val="534298337"/>
+        <c:axId val="143488855"/>
+        <c:axId val="562741713"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="209120624"/>
+        <c:axId val="143488855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,7 +3080,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534298337"/>
+        <c:crossAx val="562741713"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2921,7 +3088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="534298337"/>
+        <c:axId val="562741713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,12 +3137,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209120624"/>
+        <c:crossAx val="143488855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="797032318"/>
+        <c:axId val="692530587"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3003,14 +3170,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="877375412"/>
+        <c:crossAx val="429936346"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="877375412"/>
+        <c:axId val="429936346"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3213,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="797032318"/>
+        <c:crossAx val="692530587"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3181,6 +3348,582 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
+              <c:f>账户!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>盈亏</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>账户!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>账户!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="528656006"/>
+        <c:axId val="404276386"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>账户!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日初始资金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>账户!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>账户!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>191166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>账户!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日收盘资金</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>账户!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>账户!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>189418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="366038264"/>
+        <c:axId val="42831853"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="366038264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="42831853"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="42831853"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="366038264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="528656006"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404276386"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="404276386"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="528656006"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
               <c:f>期货!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -3262,6 +4005,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3372,6 +4118,9 @@
                 <c:pt idx="4">
                   <c:v>154685</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>155594</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3465,6 +4214,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>155594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158980</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3938,6 +4690,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10298">
   <cs:axisTitle>
@@ -6031,6 +6823,529 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10298">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6628,24 +7943,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4638675" y="920750"/>
-        <a:ext cx="5969000" cy="3848100"/>
+        <a:off x="4219575" y="177800"/>
+        <a:ext cx="8740140" cy="5038725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6662,25 +7977,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>45085</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4191000" y="216535"/>
-        <a:ext cx="8064500" cy="4732655"/>
+        <a:off x="4657725" y="644525"/>
+        <a:ext cx="7768590" cy="4105275"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6694,6 +8009,41 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4800600" y="1301750"/>
+        <a:ext cx="8682990" cy="3638550"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6981,7 +8331,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7077,9 +8427,15 @@
         <v>6767</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>45306</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2886</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6109</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -7145,7 +8501,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -7243,9 +8599,15 @@
         <v>-30.3</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>45306</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-76.5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-3.55</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -7311,7 +8673,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7431,9 +8793,18 @@
         <v>75.6</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>45306</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>84.3</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -7469,7 +8840,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -7593,9 +8964,15 @@
       <c r="A9" s="2">
         <v>45306</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="1">
+        <v>1991</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3115</v>
+      </c>
+      <c r="D9" s="1">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
@@ -7639,13 +9016,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
@@ -7653,25 +9030,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" s="3" customFormat="1" spans="1:4">
       <c r="A2" s="2">
         <v>45306</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>191166</v>
+      </c>
+      <c r="C2" s="3">
+        <v>189418</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1748</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7694,9 +9077,35 @@
         <v>45310</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>45317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7705,8 +9114,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -7800,9 +9209,18 @@
         <v>909</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>45306</v>
+      </c>
+      <c r="B7" s="3">
+        <v>155594</v>
+      </c>
+      <c r="C7" s="3">
+        <v>158980</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3388</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/2024-Stock.xlsx
+++ b/2024-Stock.xlsx
@@ -679,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +690,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1123,6 +1126,9 @@
                 <c:pt idx="7">
                   <c:v>6109</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>6848</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1246,6 +1252,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2886</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,6 +1684,9 @@
                 <c:pt idx="7">
                   <c:v>-76.5</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>-253</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1780,6 +1792,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-3.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-41.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,6 +2144,9 @@
                 <c:pt idx="7">
                   <c:v>84.3</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2253,6 +2271,9 @@
                 <c:pt idx="7">
                   <c:v>43</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2361,6 +2382,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2787,6 +2811,9 @@
                 <c:pt idx="7">
                   <c:v>39</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2911,6 +2938,9 @@
                 <c:pt idx="7">
                   <c:v>1991</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>1632</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3019,6 +3049,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3520</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,6 +3451,9 @@
                 <c:pt idx="0">
                   <c:v>-1748</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2673</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3515,6 +3551,9 @@
                 <c:pt idx="0">
                   <c:v>191166</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>189418</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3596,6 +3635,9 @@
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>189418</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="#,##0">
+                  <c:v>186745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3756,6 +3798,8 @@
         <c:axId val="404276386"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="-10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -4009,6 +4053,9 @@
                 <c:pt idx="5">
                   <c:v>3388</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5870</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4121,6 +4168,9 @@
                 <c:pt idx="5">
                   <c:v>155594</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>158980</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4217,6 +4267,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>158980</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7878,10 +7931,10 @@
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>453390</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>81915</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>614680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -7890,7 +7943,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4391025" y="130175"/>
-        <a:ext cx="7301865" cy="4752340"/>
+        <a:ext cx="9520555" cy="4923155"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7915,7 +7968,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -7925,7 +7978,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="4800600" y="568325"/>
-        <a:ext cx="8369300" cy="4342765"/>
+        <a:ext cx="8369300" cy="3828415"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8328,10 +8381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8431,16 +8484,22 @@
       <c r="A9" s="2">
         <v>45306</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>2886</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>6109</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" s="3" customFormat="1" spans="1:3">
       <c r="A10" s="2">
         <v>45307</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2893</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6848</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -8456,6 +8515,81 @@
     <row r="13" spans="1:1">
       <c r="A13" s="2">
         <v>45310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>45331</v>
       </c>
     </row>
   </sheetData>
@@ -8498,10 +8632,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8578,7 +8712,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -8589,7 +8723,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -8603,16 +8737,22 @@
       <c r="A9" s="2">
         <v>45306</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>-76.5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>-3.55</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>45307</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-253</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-41.3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -8628,6 +8768,81 @@
     <row r="13" spans="1:1">
       <c r="A13" s="2">
         <v>45310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>45331</v>
       </c>
     </row>
   </sheetData>
@@ -8670,10 +8885,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A19" sqref="A19:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8797,19 +9012,28 @@
       <c r="A9" s="2">
         <v>45306</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>43</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>84.3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>45307</v>
+      </c>
+      <c r="B10" s="3">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>81.3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -8825,6 +9049,81 @@
     <row r="13" spans="1:1">
       <c r="A13" s="2">
         <v>45310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>45331</v>
       </c>
     </row>
   </sheetData>
@@ -8837,10 +9136,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8978,9 +9277,15 @@
       <c r="A10" s="2">
         <v>45307</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="1">
+        <v>1632</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3520</v>
+      </c>
+      <c r="D10" s="1">
+        <v>31.7</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
@@ -9005,6 +9310,81 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>45313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>45317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>45331</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9016,10 +9396,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D11"/>
+      <selection activeCell="A12" sqref="A12:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9043,23 +9423,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="2">
         <v>45306</v>
       </c>
       <c r="B2" s="1">
         <v>191166</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>189418</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>-1748</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" s="3" customFormat="1" spans="1:4">
       <c r="A3" s="2">
         <v>45307</v>
+      </c>
+      <c r="B3" s="3">
+        <v>189418</v>
+      </c>
+      <c r="C3" s="4">
+        <v>186745</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-2673</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -9100,6 +9489,56 @@
     <row r="11" spans="1:1">
       <c r="A11" s="2">
         <v>45317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>45331</v>
       </c>
     </row>
   </sheetData>
@@ -9112,10 +9551,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9213,19 +9652,28 @@
       <c r="A7" s="2">
         <v>45306</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>155594</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>158980</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>3388</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>45307</v>
+      </c>
+      <c r="B8" s="3">
+        <v>158980</v>
+      </c>
+      <c r="C8" s="3">
+        <v>153176</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-5870</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -9241,6 +9689,56 @@
     <row r="11" spans="1:1">
       <c r="A11" s="2">
         <v>45310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>45323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>45324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>45328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>45331</v>
       </c>
     </row>
   </sheetData>

--- a/2024-Stock.xlsx
+++ b/2024-Stock.xlsx
@@ -679,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,6 +690,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1129,6 +1132,9 @@
                 <c:pt idx="8">
                   <c:v>6848</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>6375</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1255,6 +1261,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,6 +1696,9 @@
                 <c:pt idx="8">
                   <c:v>-253</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>-367</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1795,6 +1807,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-41.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-130.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,6 +2162,9 @@
                 <c:pt idx="8">
                   <c:v>81.3</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2274,6 +2292,9 @@
                 <c:pt idx="8">
                   <c:v>39</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2385,6 +2406,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2457,6 +2481,7 @@
         <c:axId val="488034121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2814,6 +2839,9 @@
                 <c:pt idx="8">
                   <c:v>31.7</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2941,6 +2969,9 @@
                 <c:pt idx="8">
                   <c:v>1632</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>280</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3052,6 +3083,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3520</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3454,6 +3488,9 @@
                 <c:pt idx="1">
                   <c:v>-2673</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7140</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3554,6 +3591,9 @@
                 <c:pt idx="1">
                   <c:v>189418</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>186745</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3638,6 +3678,9 @@
                 </c:pt>
                 <c:pt idx="1" c:formatCode="#,##0">
                   <c:v>186745</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="#,##0">
+                  <c:v>179605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4056,6 +4099,9 @@
                 <c:pt idx="6">
                   <c:v>-5870</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>-4490</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4171,6 +4217,9 @@
                 <c:pt idx="6">
                   <c:v>158980</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>153176</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4270,6 +4319,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>153176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>148686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8383,8 +8435,8 @@
   <sheetPr/>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8491,20 +8543,26 @@
         <v>6109</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:3">
+    <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="2">
         <v>45307</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>2893</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>6848</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>45308</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2833</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6375</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -8635,7 +8693,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8712,7 +8770,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -8723,7 +8781,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -8748,16 +8806,22 @@
       <c r="A10" s="2">
         <v>45307</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>-253</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>-41.3</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>45308</v>
+      </c>
+      <c r="B11" s="3">
+        <v>-367</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-130.5</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -8888,7 +8952,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A28"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9026,19 +9090,28 @@
       <c r="A10" s="2">
         <v>45307</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>39</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>81.3</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>45308</v>
+      </c>
+      <c r="B11" s="3">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3">
+        <v>68.4</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -9139,7 +9212,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9291,9 +9364,15 @@
       <c r="A11" s="2">
         <v>45308</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1">
+        <v>280</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5035</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
@@ -9399,7 +9478,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A21"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9437,23 +9516,32 @@
         <v>-1748</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:4">
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="2">
         <v>45307</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>189418</v>
       </c>
       <c r="C3" s="4">
         <v>186745</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>-2673</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>45308</v>
+      </c>
+      <c r="B4" s="3">
+        <v>186745</v>
+      </c>
+      <c r="C4" s="5">
+        <v>179605</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-7140</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -9554,7 +9642,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9666,19 +9754,28 @@
       <c r="A8" s="2">
         <v>45307</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>158980</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>153176</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>-5870</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>45308</v>
+      </c>
+      <c r="B9" s="3">
+        <v>153176</v>
+      </c>
+      <c r="C9" s="3">
+        <v>148686</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-4490</v>
       </c>
     </row>
     <row r="10" spans="1:1">

--- a/2024-Stock.xlsx
+++ b/2024-Stock.xlsx
@@ -1135,6 +1135,9 @@
                 <c:pt idx="9">
                   <c:v>6375</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>8648</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1264,6 +1267,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2833</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1699,6 +1705,9 @@
                 <c:pt idx="9">
                   <c:v>-367</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>-131.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1810,6 +1819,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>-130.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,6 +2177,9 @@
                 <c:pt idx="9">
                   <c:v>68.4</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>75.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2295,6 +2310,9 @@
                 <c:pt idx="9">
                   <c:v>39</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2409,6 +2427,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2842,6 +2863,9 @@
                 <c:pt idx="9">
                   <c:v>5.2</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2972,6 +2996,9 @@
                 <c:pt idx="9">
                   <c:v>280</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1670</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3086,6 +3113,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5035</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3491,6 +3521,9 @@
                 <c:pt idx="2">
                   <c:v>-7140</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3356</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3594,6 +3627,9 @@
                 <c:pt idx="2">
                   <c:v>186745</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>179605</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3681,6 +3717,9 @@
                 </c:pt>
                 <c:pt idx="2" c:formatCode="#,##0">
                   <c:v>179605</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="#,##0">
+                  <c:v>176249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4102,6 +4141,9 @@
                 <c:pt idx="7">
                   <c:v>-4490</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11621</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4220,6 +4262,9 @@
                 <c:pt idx="7">
                   <c:v>153176</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>148686</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4322,6 +4367,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>148686</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>137065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4394,6 +4442,8 @@
         <c:axId val="788317142"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="300000"/>
+          <c:min val="100000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4483,6 +4533,7 @@
         <c:axId val="443660613"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="15000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -8436,7 +8487,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8565,9 +8616,15 @@
         <v>6375</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" s="3" customFormat="1" spans="1:3">
       <c r="A12" s="2">
         <v>45309</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2845</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8648</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -8693,7 +8750,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8824,9 +8881,15 @@
         <v>-130.5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>45309</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-131.7</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-7.4</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -8952,7 +9015,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9114,9 +9177,18 @@
         <v>68.4</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>45309</v>
+      </c>
+      <c r="B12" s="3">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
+        <v>75.4</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -9212,7 +9284,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9378,9 +9450,15 @@
       <c r="A12" s="2">
         <v>45309</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="1">
+        <v>1670</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3539</v>
+      </c>
+      <c r="D12" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
@@ -9478,7 +9556,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9544,9 +9622,18 @@
         <v>-7140</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>45309</v>
+      </c>
+      <c r="B5" s="3">
+        <v>179605</v>
+      </c>
+      <c r="C5" s="5">
+        <v>176249</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-3356</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -9642,7 +9729,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9778,9 +9865,18 @@
         <v>-4490</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>45309</v>
+      </c>
+      <c r="B10" s="3">
+        <v>148686</v>
+      </c>
+      <c r="C10" s="3">
+        <v>137065</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-11621</v>
       </c>
     </row>
     <row r="11" spans="1:1">

--- a/2024-Stock.xlsx
+++ b/2024-Stock.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>日期</t>
   </si>
@@ -42,13 +42,13 @@
     <t>跌停数</t>
   </si>
   <si>
-    <t>温度</t>
-  </si>
-  <si>
     <t>上涨数</t>
   </si>
   <si>
     <t>下跌数</t>
+  </si>
+  <si>
+    <t>温度</t>
   </si>
   <si>
     <t>日初始资金</t>
@@ -1138,6 +1138,9 @@
                 <c:pt idx="10">
                   <c:v>8648</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>6666</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1270,6 +1273,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,6 +1714,9 @@
                 <c:pt idx="10">
                   <c:v>-131.7</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>-184</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1822,6 +1831,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-7.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2070,22 +2082,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>涨跌停数量!$D$1</c:f>
+              <c:f>涨跌停数量!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>温度</c:v>
+                  <c:v>涨停数</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2098,10 +2110,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>涨跌停数量!$A$2:$A$13</c:f>
+              <c:f>涨跌停数量!$A$2:$A$28</c:f>
               <c:numCache>
                 <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
                   <c:v>45295</c:v>
                 </c:pt>
@@ -2137,48 +2149,259 @@
                 </c:pt>
                 <c:pt idx="11" c:formatCode="yyyy/m/d">
                   <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                  <c:v>45324</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                  <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                  <c:v>45328</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                  <c:v>45329</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                  <c:v>45331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>涨跌停数量!$D$2:$D$13</c:f>
+              <c:f>涨跌停数量!$B$2:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.4</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90.7</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.6</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84.3</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.3</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.4</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.4</c:v>
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>涨跌停数量!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>跌停数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>涨跌停数量!$A$2:$A$28</c:f>
+              <c:numCache>
+                <c:formatCode>yyyy/m/d</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0" c:formatCode="yyyy/m/d">
+                  <c:v>45295</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="yyyy/m/d">
+                  <c:v>45296</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="yyyy/m/d">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="yyyy/m/d">
+                  <c:v>45300</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="yyyy/m/d">
+                  <c:v>45301</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="yyyy/m/d">
+                  <c:v>45302</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="yyyy/m/d">
+                  <c:v>45303</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="yyyy/m/d">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="yyyy/m/d">
+                  <c:v>45307</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="yyyy/m/d">
+                  <c:v>45308</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="yyyy/m/d">
+                  <c:v>45309</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="yyyy/m/d">
+                  <c:v>45310</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="yyyy/m/d">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="yyyy/m/d">
+                  <c:v>45314</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="yyyy/m/d">
+                  <c:v>45315</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="yyyy/m/d">
+                  <c:v>45316</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="yyyy/m/d">
+                  <c:v>45317</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="yyyy/m/d">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="yyyy/m/d">
+                  <c:v>45321</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="yyyy/m/d">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="yyyy/m/d">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="yyyy/m/d">
+                  <c:v>45324</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="yyyy/m/d">
+                  <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="yyyy/m/d">
+                  <c:v>45328</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="yyyy/m/d">
+                  <c:v>45329</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="yyyy/m/d">
+                  <c:v>45330</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="yyyy/m/d">
+                  <c:v>45331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>涨跌停数量!$C$2:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,263 +2417,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="261604076"/>
-        <c:axId val="462470683"/>
+        <c:axId val="999310790"/>
+        <c:axId val="607610185"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>涨跌停数量!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>涨停数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>涨跌停数量!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>45295</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>45296</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>45299</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>45300</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>45301</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>45302</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>45303</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>45306</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>45307</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>45308</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>45309</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>45310</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>涨跌停数量!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>涨跌停数量!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>跌停数</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>涨跌停数量!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>yyyy/m/d</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>45295</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>45296</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>45299</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>45300</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="yyyy/m/d">
-                  <c:v>45301</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="yyyy/m/d">
-                  <c:v>45302</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="yyyy/m/d">
-                  <c:v>45303</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="yyyy/m/d">
-                  <c:v>45306</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="yyyy/m/d">
-                  <c:v>45307</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="yyyy/m/d">
-                  <c:v>45308</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="yyyy/m/d">
-                  <c:v>45309</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="yyyy/m/d">
-                  <c:v>45310</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>涨跌停数量!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="0"/>
-        <c:smooth val="0"/>
-        <c:axId val="232298203"/>
-        <c:axId val="488034121"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="232298203"/>
+        <c:axId val="999310790"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,7 +2462,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="488034121"/>
+        <c:crossAx val="607610185"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2499,7 +2470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="488034121"/>
+        <c:axId val="607610185"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200"/>
@@ -2549,84 +2520,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232298203"/>
+        <c:crossAx val="999310790"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dateAx>
-        <c:axId val="261604076"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="462470683"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="462470683"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="261604076"/>
-        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2866,6 +2761,9 @@
                 <c:pt idx="10">
                   <c:v>32</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2999,6 +2897,9 @@
                 <c:pt idx="10">
                   <c:v>1670</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>1044</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3116,6 +3017,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3539</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3524,6 +3428,9 @@
                 <c:pt idx="3">
                   <c:v>-3356</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3380</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3630,6 +3537,9 @@
                 <c:pt idx="3">
                   <c:v>179605</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>176249</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3720,6 +3630,9 @@
                 </c:pt>
                 <c:pt idx="3" c:formatCode="#,##0">
                   <c:v>176249</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="#,##0">
+                  <c:v>172869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4144,6 +4057,9 @@
                 <c:pt idx="8">
                   <c:v>-11621</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7070</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4265,6 +4181,9 @@
                 <c:pt idx="8">
                   <c:v>148686</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>137065</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4370,6 +4289,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>137065</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>129995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8063,16 +7985,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>267335</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8080,8 +8002,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4800600" y="568325"/>
-        <a:ext cx="8369300" cy="3828415"/>
+        <a:off x="3886835" y="215900"/>
+        <a:ext cx="10311130" cy="4476115"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8098,25 +8020,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4219575" y="177800"/>
-        <a:ext cx="8740140" cy="5038725"/>
+        <a:off x="2838450" y="207010"/>
+        <a:ext cx="9912350" cy="4885690"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8133,16 +8055,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>686435</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>73660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>662940</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>62230</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8150,8 +8072,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4657725" y="644525"/>
-        <a:ext cx="7768590" cy="4105275"/>
+        <a:off x="3533775" y="588010"/>
+        <a:ext cx="10349230" cy="4523740"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8203,14 +8125,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>73660</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>81280</xdr:rowOff>
     </xdr:to>
@@ -8220,8 +8142,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4505325" y="759460"/>
-        <a:ext cx="8702675" cy="4293870"/>
+        <a:off x="3429000" y="387985"/>
+        <a:ext cx="10521315" cy="4665345"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8487,7 +8409,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8609,27 +8531,33 @@
       <c r="A11" s="2">
         <v>45308</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>2833</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>6375</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:3">
+    <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" s="2">
         <v>45309</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>2845</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>8648</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>45310</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2832</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6666</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -8750,7 +8678,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -8874,10 +8802,10 @@
       <c r="A11" s="2">
         <v>45308</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>-367</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>-130.5</v>
       </c>
     </row>
@@ -8885,16 +8813,22 @@
       <c r="A12" s="2">
         <v>45309</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>-131.7</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>-7.4</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" s="2">
         <v>45310</v>
+      </c>
+      <c r="B13" s="3">
+        <v>-184</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-52</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -9012,18 +8946,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9033,11 +8967,8 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>45295</v>
       </c>
@@ -9047,11 +8978,8 @@
       <c r="C2" s="1">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>45296</v>
       </c>
@@ -9061,11 +8989,8 @@
       <c r="C3" s="1">
         <v>17</v>
       </c>
-      <c r="D3" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>45299</v>
       </c>
@@ -9075,11 +9000,8 @@
       <c r="C4" s="1">
         <v>17</v>
       </c>
-      <c r="D4" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>45300</v>
       </c>
@@ -9089,11 +9011,8 @@
       <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>45301</v>
       </c>
@@ -9103,11 +9022,8 @@
       <c r="C6" s="1">
         <v>16</v>
       </c>
-      <c r="D6" s="1">
-        <v>72.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>45302</v>
       </c>
@@ -9117,11 +9033,8 @@
       <c r="C7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="1">
-        <v>90.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="2">
         <v>45303</v>
       </c>
@@ -9131,11 +9044,8 @@
       <c r="C8" s="1">
         <v>9</v>
       </c>
-      <c r="D8" s="1">
-        <v>75.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>45306</v>
       </c>
@@ -9145,11 +9055,8 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
-        <v>84.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>45307</v>
       </c>
@@ -9159,41 +9066,38 @@
       <c r="C10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="1">
-        <v>81.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2">
         <v>45308</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>39</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>18</v>
       </c>
-      <c r="D11" s="3">
-        <v>68.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2">
         <v>45309</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>40</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>13</v>
       </c>
-      <c r="D12" s="3">
-        <v>75.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:3">
       <c r="A13" s="2">
         <v>45310</v>
+      </c>
+      <c r="B13" s="3">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -9284,7 +9188,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9297,13 +9201,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9464,9 +9368,15 @@
       <c r="A13" s="2">
         <v>45310</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="1">
+        <v>1044</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4176</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="2">
@@ -9556,7 +9466,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9612,13 +9522,13 @@
       <c r="A4" s="2">
         <v>45308</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>186745</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>179605</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>-7140</v>
       </c>
     </row>
@@ -9626,19 +9536,28 @@
       <c r="A5" s="2">
         <v>45309</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>176249</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>-3356</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>45310</v>
+      </c>
+      <c r="B6" s="3">
+        <v>176249</v>
+      </c>
+      <c r="C6" s="5">
+        <v>172869</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-3380</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -9729,7 +9648,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9855,13 +9774,13 @@
       <c r="A9" s="2">
         <v>45308</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>153176</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>148686</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>-4490</v>
       </c>
     </row>
@@ -9869,19 +9788,28 @@
       <c r="A10" s="2">
         <v>45309</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>148686</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>137065</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>-11621</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>45310</v>
+      </c>
+      <c r="B11" s="3">
+        <v>137065</v>
+      </c>
+      <c r="C11" s="3">
+        <v>129995</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-7070</v>
       </c>
     </row>
     <row r="12" spans="1:1">

--- a/2024-Stock.xlsx
+++ b/2024-Stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="4"/>
+    <workbookView windowWidth="23145" windowHeight="9675" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="股指及成交量" sheetId="1" r:id="rId1"/>
@@ -679,7 +679,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,13 +689,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1852,6 +1849,9 @@
                 <c:pt idx="12">
                   <c:v>7941</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>7042</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2695,6 +2695,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2756</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2770</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3849,6 +3852,9 @@
                 <c:pt idx="12">
                   <c:v>-499</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4674,6 +4680,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5743,6 +5752,9 @@
                 <c:pt idx="12">
                   <c:v>22</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>51</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6568,6 +6580,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7637,6 +7652,9 @@
                 <c:pt idx="12">
                   <c:v>2.7</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8481,6 +8499,9 @@
                 <c:pt idx="12">
                   <c:v>147</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>2977</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9309,6 +9330,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10414,6 +10438,9 @@
                 <c:pt idx="5">
                   <c:v>-13809</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>1742</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11216,6 +11243,9 @@
                 <c:pt idx="5">
                   <c:v>172869</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>159060</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -12002,6 +12032,9 @@
                 </c:pt>
                 <c:pt idx="5" c:formatCode="#,##0">
                   <c:v>159060</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="#,##0">
+                  <c:v>160802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12074,7 +12107,8 @@
         <c:axId val="727592237"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="300000"/>
+          <c:max val="400000"/>
+          <c:min val="100000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12124,7 +12158,8 @@
         <c:crossAx val="339188832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="20000"/>
+        <c:majorUnit val="10000"/>
+        <c:minorUnit val="2000"/>
       </c:valAx>
       <c:dateAx>
         <c:axId val="163009573"/>
@@ -12165,8 +12200,8 @@
         <c:axId val="141713727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="25000"/>
-          <c:min val="-25000"/>
+          <c:max val="35000"/>
+          <c:min val="-30000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -12203,6 +12238,7 @@
         <c:crossAx val="163009573"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13140,6 +13176,9 @@
                 <c:pt idx="10" c:formatCode="#,##0">
                   <c:v>13503</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>8670</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -13972,6 +14011,9 @@
                 <c:pt idx="10">
                   <c:v>129995</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>143498</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -14788,6 +14830,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>143498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18591,14 +18636,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>110</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>120015</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -18606,8 +18651,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4514850" y="577850"/>
-        <a:ext cx="71995665" cy="4342765"/>
+        <a:off x="4514850" y="53975"/>
+        <a:ext cx="72005190" cy="5389880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -18908,7 +18953,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -19063,16 +19108,22 @@
       <c r="A14" s="2">
         <v>45313</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>2756</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>7941</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>45314</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2770</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7042</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -19411,7 +19462,7 @@
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="5">
+      <c r="A83" s="2">
         <v>45415</v>
       </c>
     </row>
@@ -19426,7 +19477,7 @@
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="5">
+      <c r="A86" s="2">
         <v>45420</v>
       </c>
     </row>
@@ -19451,7 +19502,7 @@
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="5">
+      <c r="A91" s="2">
         <v>45427</v>
       </c>
     </row>
@@ -19476,7 +19527,7 @@
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="5">
+      <c r="A96" s="2">
         <v>45434</v>
       </c>
     </row>
@@ -19501,7 +19552,7 @@
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="5">
+      <c r="A101" s="2">
         <v>45441</v>
       </c>
     </row>
@@ -19516,7 +19567,7 @@
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="5">
+      <c r="A104" s="2">
         <v>45446</v>
       </c>
     </row>
@@ -19531,7 +19582,7 @@
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="5">
+      <c r="A107" s="2">
         <v>45449</v>
       </c>
     </row>
@@ -19541,7 +19592,7 @@
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="5">
+      <c r="A109" s="2">
         <v>45453</v>
       </c>
     </row>
@@ -19556,7 +19607,7 @@
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="5">
+      <c r="A112" s="2">
         <v>45456</v>
       </c>
     </row>
@@ -19566,7 +19617,7 @@
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="5">
+      <c r="A114" s="2">
         <v>45460</v>
       </c>
     </row>
@@ -19581,7 +19632,7 @@
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="5">
+      <c r="A117" s="2">
         <v>45463</v>
       </c>
     </row>
@@ -19591,7 +19642,7 @@
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="5">
+      <c r="A119" s="2">
         <v>45467</v>
       </c>
     </row>
@@ -19606,7 +19657,7 @@
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="5">
+      <c r="A122" s="2">
         <v>45470</v>
       </c>
     </row>
@@ -19616,7 +19667,7 @@
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="5">
+      <c r="A124" s="2">
         <v>45474</v>
       </c>
     </row>
@@ -19631,7 +19682,7 @@
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="5">
+      <c r="A127" s="2">
         <v>45477</v>
       </c>
     </row>
@@ -19641,7 +19692,7 @@
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="5">
+      <c r="A129" s="2">
         <v>45481</v>
       </c>
     </row>
@@ -19656,7 +19707,7 @@
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="5">
+      <c r="A132" s="2">
         <v>45484</v>
       </c>
     </row>
@@ -19666,7 +19717,7 @@
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="5">
+      <c r="A134" s="2">
         <v>45488</v>
       </c>
     </row>
@@ -19681,7 +19732,7 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="5">
+      <c r="A137" s="2">
         <v>45491</v>
       </c>
     </row>
@@ -19696,7 +19747,7 @@
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="5">
+      <c r="A140" s="2">
         <v>45496</v>
       </c>
     </row>
@@ -19711,7 +19762,7 @@
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="5">
+      <c r="A143" s="2">
         <v>45499</v>
       </c>
     </row>
@@ -20051,7 +20102,7 @@
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="5">
+      <c r="A211" s="2">
         <v>45602</v>
       </c>
     </row>
@@ -20076,7 +20127,7 @@
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="5">
+      <c r="A216" s="2">
         <v>45609</v>
       </c>
     </row>
@@ -20283,7 +20334,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BQ28" sqref="BQ28"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -20360,7 +20411,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>45302</v>
       </c>
       <c r="B7" s="1">
@@ -20371,7 +20422,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>45303</v>
       </c>
       <c r="B8" s="1">
@@ -20440,16 +20491,22 @@
       <c r="A14" s="2">
         <v>45313</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>-499</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>10.7</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>45314</v>
+      </c>
+      <c r="B15" s="4">
+        <v>85</v>
+      </c>
+      <c r="C15" s="4">
+        <v>37.9</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -20788,7 +20845,7 @@
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="5">
+      <c r="A83" s="2">
         <v>45415</v>
       </c>
     </row>
@@ -20803,7 +20860,7 @@
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="5">
+      <c r="A86" s="2">
         <v>45420</v>
       </c>
     </row>
@@ -20828,7 +20885,7 @@
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="5">
+      <c r="A91" s="2">
         <v>45427</v>
       </c>
     </row>
@@ -20853,7 +20910,7 @@
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="5">
+      <c r="A96" s="2">
         <v>45434</v>
       </c>
     </row>
@@ -20878,7 +20935,7 @@
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="5">
+      <c r="A101" s="2">
         <v>45441</v>
       </c>
     </row>
@@ -20893,7 +20950,7 @@
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="5">
+      <c r="A104" s="2">
         <v>45446</v>
       </c>
     </row>
@@ -20908,7 +20965,7 @@
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="5">
+      <c r="A107" s="2">
         <v>45449</v>
       </c>
     </row>
@@ -20918,7 +20975,7 @@
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="5">
+      <c r="A109" s="2">
         <v>45453</v>
       </c>
     </row>
@@ -20933,7 +20990,7 @@
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="5">
+      <c r="A112" s="2">
         <v>45456</v>
       </c>
     </row>
@@ -20943,7 +21000,7 @@
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="5">
+      <c r="A114" s="2">
         <v>45460</v>
       </c>
     </row>
@@ -20958,7 +21015,7 @@
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="5">
+      <c r="A117" s="2">
         <v>45463</v>
       </c>
     </row>
@@ -20968,7 +21025,7 @@
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="5">
+      <c r="A119" s="2">
         <v>45467</v>
       </c>
     </row>
@@ -20983,7 +21040,7 @@
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="5">
+      <c r="A122" s="2">
         <v>45470</v>
       </c>
     </row>
@@ -20993,7 +21050,7 @@
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="5">
+      <c r="A124" s="2">
         <v>45474</v>
       </c>
     </row>
@@ -21008,7 +21065,7 @@
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="5">
+      <c r="A127" s="2">
         <v>45477</v>
       </c>
     </row>
@@ -21018,7 +21075,7 @@
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="5">
+      <c r="A129" s="2">
         <v>45481</v>
       </c>
     </row>
@@ -21033,7 +21090,7 @@
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="5">
+      <c r="A132" s="2">
         <v>45484</v>
       </c>
     </row>
@@ -21043,7 +21100,7 @@
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="5">
+      <c r="A134" s="2">
         <v>45488</v>
       </c>
     </row>
@@ -21058,7 +21115,7 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="5">
+      <c r="A137" s="2">
         <v>45491</v>
       </c>
     </row>
@@ -21073,7 +21130,7 @@
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="5">
+      <c r="A140" s="2">
         <v>45496</v>
       </c>
     </row>
@@ -21088,7 +21145,7 @@
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="5">
+      <c r="A143" s="2">
         <v>45499</v>
       </c>
     </row>
@@ -21428,7 +21485,7 @@
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="5">
+      <c r="A211" s="2">
         <v>45602</v>
       </c>
     </row>
@@ -21453,7 +21510,7 @@
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="5">
+      <c r="A216" s="2">
         <v>45609</v>
       </c>
     </row>
@@ -21660,7 +21717,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C248"/>
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -21815,16 +21872,22 @@
       <c r="A14" s="2">
         <v>45313</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>22</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:3">
       <c r="A15" s="2">
         <v>45314</v>
+      </c>
+      <c r="B15" s="4">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -22163,7 +22226,7 @@
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="5">
+      <c r="A83" s="2">
         <v>45415</v>
       </c>
     </row>
@@ -22178,7 +22241,7 @@
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="5">
+      <c r="A86" s="2">
         <v>45420</v>
       </c>
     </row>
@@ -22203,7 +22266,7 @@
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="5">
+      <c r="A91" s="2">
         <v>45427</v>
       </c>
     </row>
@@ -22228,7 +22291,7 @@
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="5">
+      <c r="A96" s="2">
         <v>45434</v>
       </c>
     </row>
@@ -22253,7 +22316,7 @@
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="5">
+      <c r="A101" s="2">
         <v>45441</v>
       </c>
     </row>
@@ -22268,7 +22331,7 @@
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="5">
+      <c r="A104" s="2">
         <v>45446</v>
       </c>
     </row>
@@ -22283,7 +22346,7 @@
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="5">
+      <c r="A107" s="2">
         <v>45449</v>
       </c>
     </row>
@@ -22293,7 +22356,7 @@
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="5">
+      <c r="A109" s="2">
         <v>45453</v>
       </c>
     </row>
@@ -22308,7 +22371,7 @@
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="5">
+      <c r="A112" s="2">
         <v>45456</v>
       </c>
     </row>
@@ -22318,7 +22381,7 @@
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="5">
+      <c r="A114" s="2">
         <v>45460</v>
       </c>
     </row>
@@ -22333,7 +22396,7 @@
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="5">
+      <c r="A117" s="2">
         <v>45463</v>
       </c>
     </row>
@@ -22343,7 +22406,7 @@
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="5">
+      <c r="A119" s="2">
         <v>45467</v>
       </c>
     </row>
@@ -22358,7 +22421,7 @@
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="5">
+      <c r="A122" s="2">
         <v>45470</v>
       </c>
     </row>
@@ -22368,7 +22431,7 @@
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="5">
+      <c r="A124" s="2">
         <v>45474</v>
       </c>
     </row>
@@ -22383,7 +22446,7 @@
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="5">
+      <c r="A127" s="2">
         <v>45477</v>
       </c>
     </row>
@@ -22393,7 +22456,7 @@
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="5">
+      <c r="A129" s="2">
         <v>45481</v>
       </c>
     </row>
@@ -22408,7 +22471,7 @@
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="5">
+      <c r="A132" s="2">
         <v>45484</v>
       </c>
     </row>
@@ -22418,7 +22481,7 @@
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="5">
+      <c r="A134" s="2">
         <v>45488</v>
       </c>
     </row>
@@ -22433,7 +22496,7 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="5">
+      <c r="A137" s="2">
         <v>45491</v>
       </c>
     </row>
@@ -22448,7 +22511,7 @@
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="5">
+      <c r="A140" s="2">
         <v>45496</v>
       </c>
     </row>
@@ -22463,7 +22526,7 @@
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="5">
+      <c r="A143" s="2">
         <v>45499</v>
       </c>
     </row>
@@ -22803,7 +22866,7 @@
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="5">
+      <c r="A211" s="2">
         <v>45602</v>
       </c>
     </row>
@@ -22828,7 +22891,7 @@
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="5">
+      <c r="A216" s="2">
         <v>45609</v>
       </c>
     </row>
@@ -23005,7 +23068,7 @@
   <dimension ref="A1:D248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="DO1" sqref="DO1"/>
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -23199,19 +23262,28 @@
       <c r="A14" s="2">
         <v>45313</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>147</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>5184</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" s="4" customFormat="1" spans="1:4">
       <c r="A15" s="2">
         <v>45314</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2977</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2199</v>
+      </c>
+      <c r="D15" s="4">
+        <v>57.5</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -23550,7 +23622,7 @@
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="5">
+      <c r="A83" s="2">
         <v>45415</v>
       </c>
     </row>
@@ -23565,7 +23637,7 @@
       </c>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="5">
+      <c r="A86" s="2">
         <v>45420</v>
       </c>
     </row>
@@ -23590,7 +23662,7 @@
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="5">
+      <c r="A91" s="2">
         <v>45427</v>
       </c>
     </row>
@@ -23615,7 +23687,7 @@
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="5">
+      <c r="A96" s="2">
         <v>45434</v>
       </c>
     </row>
@@ -23640,7 +23712,7 @@
       </c>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="5">
+      <c r="A101" s="2">
         <v>45441</v>
       </c>
     </row>
@@ -23655,7 +23727,7 @@
       </c>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="5">
+      <c r="A104" s="2">
         <v>45446</v>
       </c>
     </row>
@@ -23670,7 +23742,7 @@
       </c>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="5">
+      <c r="A107" s="2">
         <v>45449</v>
       </c>
     </row>
@@ -23680,7 +23752,7 @@
       </c>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="5">
+      <c r="A109" s="2">
         <v>45453</v>
       </c>
     </row>
@@ -23695,7 +23767,7 @@
       </c>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="5">
+      <c r="A112" s="2">
         <v>45456</v>
       </c>
     </row>
@@ -23705,7 +23777,7 @@
       </c>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="5">
+      <c r="A114" s="2">
         <v>45460</v>
       </c>
     </row>
@@ -23720,7 +23792,7 @@
       </c>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="5">
+      <c r="A117" s="2">
         <v>45463</v>
       </c>
     </row>
@@ -23730,7 +23802,7 @@
       </c>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="5">
+      <c r="A119" s="2">
         <v>45467</v>
       </c>
     </row>
@@ -23745,7 +23817,7 @@
       </c>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="5">
+      <c r="A122" s="2">
         <v>45470</v>
       </c>
     </row>
@@ -23755,7 +23827,7 @@
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="5">
+      <c r="A124" s="2">
         <v>45474</v>
       </c>
     </row>
@@ -23770,7 +23842,7 @@
       </c>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="5">
+      <c r="A127" s="2">
         <v>45477</v>
       </c>
     </row>
@@ -23780,7 +23852,7 @@
       </c>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="5">
+      <c r="A129" s="2">
         <v>45481</v>
       </c>
     </row>
@@ -23795,7 +23867,7 @@
       </c>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="5">
+      <c r="A132" s="2">
         <v>45484</v>
       </c>
     </row>
@@ -23805,7 +23877,7 @@
       </c>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="5">
+      <c r="A134" s="2">
         <v>45488</v>
       </c>
     </row>
@@ -23820,7 +23892,7 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="5">
+      <c r="A137" s="2">
         <v>45491</v>
       </c>
     </row>
@@ -23835,7 +23907,7 @@
       </c>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="5">
+      <c r="A140" s="2">
         <v>45496</v>
       </c>
     </row>
@@ -23850,7 +23922,7 @@
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="5">
+      <c r="A143" s="2">
         <v>45499</v>
       </c>
     </row>
@@ -24190,7 +24262,7 @@
       </c>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="5">
+      <c r="A211" s="2">
         <v>45602</v>
       </c>
     </row>
@@ -24215,7 +24287,7 @@
       </c>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="5">
+      <c r="A216" s="2">
         <v>45609</v>
       </c>
     </row>
@@ -24391,8 +24463,8 @@
   <sheetPr/>
   <dimension ref="A1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="DG19" sqref="DG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -24437,7 +24509,7 @@
       <c r="B3" s="1">
         <v>189418</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>186745</v>
       </c>
       <c r="D3" s="1">
@@ -24451,7 +24523,7 @@
       <c r="B4" s="1">
         <v>186745</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>179605</v>
       </c>
       <c r="D4" s="1">
@@ -24465,7 +24537,7 @@
       <c r="B5" s="1">
         <v>179605</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>176249</v>
       </c>
       <c r="D5" s="1">
@@ -24479,7 +24551,7 @@
       <c r="B6" s="1">
         <v>176249</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>172869</v>
       </c>
       <c r="D6" s="1">
@@ -24490,19 +24562,28 @@
       <c r="A7" s="2">
         <v>45313</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>172869</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>159060</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>-13809</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:1">
+    <row r="8" customFormat="1" spans="1:4">
       <c r="A8" s="2">
         <v>45314</v>
+      </c>
+      <c r="B8" s="4">
+        <v>159060</v>
+      </c>
+      <c r="C8" s="5">
+        <v>160802</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1742</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:1">
@@ -24841,7 +24922,7 @@
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:1">
-      <c r="A76" s="5">
+      <c r="A76" s="2">
         <v>45415</v>
       </c>
     </row>
@@ -24856,7 +24937,7 @@
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:1">
-      <c r="A79" s="5">
+      <c r="A79" s="2">
         <v>45420</v>
       </c>
     </row>
@@ -24881,7 +24962,7 @@
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:1">
-      <c r="A84" s="5">
+      <c r="A84" s="2">
         <v>45427</v>
       </c>
     </row>
@@ -24906,7 +24987,7 @@
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:1">
-      <c r="A89" s="5">
+      <c r="A89" s="2">
         <v>45434</v>
       </c>
     </row>
@@ -24931,7 +25012,7 @@
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:1">
-      <c r="A94" s="5">
+      <c r="A94" s="2">
         <v>45441</v>
       </c>
     </row>
@@ -24946,7 +25027,7 @@
       </c>
     </row>
     <row r="97" customFormat="1" spans="1:1">
-      <c r="A97" s="5">
+      <c r="A97" s="2">
         <v>45446</v>
       </c>
     </row>
@@ -24961,7 +25042,7 @@
       </c>
     </row>
     <row r="100" customFormat="1" spans="1:1">
-      <c r="A100" s="5">
+      <c r="A100" s="2">
         <v>45449</v>
       </c>
     </row>
@@ -24971,7 +25052,7 @@
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:1">
-      <c r="A102" s="5">
+      <c r="A102" s="2">
         <v>45453</v>
       </c>
     </row>
@@ -24986,7 +25067,7 @@
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:1">
-      <c r="A105" s="5">
+      <c r="A105" s="2">
         <v>45456</v>
       </c>
     </row>
@@ -24996,7 +25077,7 @@
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:1">
-      <c r="A107" s="5">
+      <c r="A107" s="2">
         <v>45460</v>
       </c>
     </row>
@@ -25011,7 +25092,7 @@
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:1">
-      <c r="A110" s="5">
+      <c r="A110" s="2">
         <v>45463</v>
       </c>
     </row>
@@ -25021,7 +25102,7 @@
       </c>
     </row>
     <row r="112" customFormat="1" spans="1:1">
-      <c r="A112" s="5">
+      <c r="A112" s="2">
         <v>45467</v>
       </c>
     </row>
@@ -25036,7 +25117,7 @@
       </c>
     </row>
     <row r="115" customFormat="1" spans="1:1">
-      <c r="A115" s="5">
+      <c r="A115" s="2">
         <v>45470</v>
       </c>
     </row>
@@ -25046,7 +25127,7 @@
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:1">
-      <c r="A117" s="5">
+      <c r="A117" s="2">
         <v>45474</v>
       </c>
     </row>
@@ -25061,7 +25142,7 @@
       </c>
     </row>
     <row r="120" customFormat="1" spans="1:1">
-      <c r="A120" s="5">
+      <c r="A120" s="2">
         <v>45477</v>
       </c>
     </row>
@@ -25071,7 +25152,7 @@
       </c>
     </row>
     <row r="122" customFormat="1" spans="1:1">
-      <c r="A122" s="5">
+      <c r="A122" s="2">
         <v>45481</v>
       </c>
     </row>
@@ -25086,7 +25167,7 @@
       </c>
     </row>
     <row r="125" customFormat="1" spans="1:1">
-      <c r="A125" s="5">
+      <c r="A125" s="2">
         <v>45484</v>
       </c>
     </row>
@@ -25096,7 +25177,7 @@
       </c>
     </row>
     <row r="127" customFormat="1" spans="1:1">
-      <c r="A127" s="5">
+      <c r="A127" s="2">
         <v>45488</v>
       </c>
     </row>
@@ -25111,7 +25192,7 @@
       </c>
     </row>
     <row r="130" customFormat="1" spans="1:1">
-      <c r="A130" s="5">
+      <c r="A130" s="2">
         <v>45491</v>
       </c>
     </row>
@@ -25126,7 +25207,7 @@
       </c>
     </row>
     <row r="133" customFormat="1" spans="1:1">
-      <c r="A133" s="5">
+      <c r="A133" s="2">
         <v>45496</v>
       </c>
     </row>
@@ -25141,7 +25222,7 @@
       </c>
     </row>
     <row r="136" customFormat="1" spans="1:1">
-      <c r="A136" s="5">
+      <c r="A136" s="2">
         <v>45499</v>
       </c>
     </row>
@@ -25481,7 +25562,7 @@
       </c>
     </row>
     <row r="204" customFormat="1" spans="1:1">
-      <c r="A204" s="5">
+      <c r="A204" s="2">
         <v>45602</v>
       </c>
     </row>
@@ -25506,7 +25587,7 @@
       </c>
     </row>
     <row r="209" customFormat="1" spans="1:1">
-      <c r="A209" s="5">
+      <c r="A209" s="2">
         <v>45609</v>
       </c>
     </row>
@@ -25682,8 +25763,8 @@
   <sheetPr/>
   <dimension ref="A1:E246"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="DH14" sqref="DH14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -25851,19 +25932,28 @@
       <c r="A12" s="2">
         <v>45313</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>129995</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>143498</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>13503</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:1">
+    <row r="13" customFormat="1" spans="1:4">
       <c r="A13" s="2">
         <v>45314</v>
+      </c>
+      <c r="B13" s="4">
+        <v>143498</v>
+      </c>
+      <c r="C13" s="4">
+        <v>150168</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8670</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:1">
@@ -26202,7 +26292,7 @@
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:1">
-      <c r="A81" s="5">
+      <c r="A81" s="2">
         <v>45415</v>
       </c>
     </row>
@@ -26217,7 +26307,7 @@
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:1">
-      <c r="A84" s="5">
+      <c r="A84" s="2">
         <v>45420</v>
       </c>
     </row>
@@ -26242,7 +26332,7 @@
       </c>
     </row>
     <row r="89" customFormat="1" spans="1:1">
-      <c r="A89" s="5">
+      <c r="A89" s="2">
         <v>45427</v>
       </c>
     </row>
@@ -26267,7 +26357,7 @@
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:1">
-      <c r="A94" s="5">
+      <c r="A94" s="2">
         <v>45434</v>
       </c>
     </row>
@@ -26292,7 +26382,7 @@
       </c>
     </row>
     <row r="99" customFormat="1" spans="1:1">
-      <c r="A99" s="5">
+      <c r="A99" s="2">
         <v>45441</v>
       </c>
     </row>
@@ -26307,7 +26397,7 @@
       </c>
     </row>
     <row r="102" customFormat="1" spans="1:1">
-      <c r="A102" s="5">
+      <c r="A102" s="2">
         <v>45446</v>
       </c>
     </row>
@@ -26322,7 +26412,7 @@
       </c>
     </row>
     <row r="105" customFormat="1" spans="1:1">
-      <c r="A105" s="5">
+      <c r="A105" s="2">
         <v>45449</v>
       </c>
     </row>
@@ -26332,7 +26422,7 @@
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:1">
-      <c r="A107" s="5">
+      <c r="A107" s="2">
         <v>45453</v>
       </c>
     </row>
@@ -26347,7 +26437,7 @@
       </c>
     </row>
     <row r="110" customFormat="1" spans="1:1">
-      <c r="A110" s="5">
+      <c r="A110" s="2">
         <v>45456</v>
       </c>
     </row>
@@ -26357,7 +26447,7 @@
       </c>
     </row>
     <row r="112" customFormat="1" spans="1:1">
-      <c r="A112" s="5">
+      <c r="A112" s="2">
         <v>45460</v>
       </c>
     </row>
@@ -26372,7 +26462,7 @@
       </c>
     </row>
     <row r="115" customFormat="1" spans="1:1">
-      <c r="A115" s="5">
+      <c r="A115" s="2">
         <v>45463</v>
       </c>
     </row>
@@ -26382,7 +26472,7 @@
       </c>
     </row>
     <row r="117" customFormat="1" spans="1:1">
-      <c r="A117" s="5">
+      <c r="A117" s="2">
         <v>45467</v>
       </c>
     </row>
@@ -26397,7 +26487,7 @@
       </c>
     </row>
     <row r="120" customFormat="1" spans="1:1">
-      <c r="A120" s="5">
+      <c r="A120" s="2">
         <v>45470</v>
       </c>
     </row>
@@ -26407,7 +26497,7 @@
       </c>
     </row>
     <row r="122" customFormat="1" spans="1:1">
-      <c r="A122" s="5">
+      <c r="A122" s="2">
         <v>45474</v>
       </c>
     </row>
@@ -26422,7 +26512,7 @@
       </c>
     </row>
     <row r="125" customFormat="1" spans="1:1">
-      <c r="A125" s="5">
+      <c r="A125" s="2">
         <v>45477</v>
       </c>
     </row>
@@ -26432,7 +26522,7 @@
       </c>
     </row>
     <row r="127" customFormat="1" spans="1:1">
-      <c r="A127" s="5">
+      <c r="A127" s="2">
         <v>45481</v>
       </c>
     </row>
@@ -26447,7 +26537,7 @@
       </c>
     </row>
     <row r="130" customFormat="1" spans="1:1">
-      <c r="A130" s="5">
+      <c r="A130" s="2">
         <v>45484</v>
       </c>
     </row>
@@ -26457,7 +26547,7 @@
       </c>
     </row>
     <row r="132" customFormat="1" spans="1:1">
-      <c r="A132" s="5">
+      <c r="A132" s="2">
         <v>45488</v>
       </c>
     </row>
@@ -26472,7 +26562,7 @@
       </c>
     </row>
     <row r="135" customFormat="1" spans="1:1">
-      <c r="A135" s="5">
+      <c r="A135" s="2">
         <v>45491</v>
       </c>
     </row>
@@ -26487,7 +26577,7 @@
       </c>
     </row>
     <row r="138" customFormat="1" spans="1:1">
-      <c r="A138" s="5">
+      <c r="A138" s="2">
         <v>45496</v>
       </c>
     </row>
@@ -26502,7 +26592,7 @@
       </c>
     </row>
     <row r="141" customFormat="1" spans="1:1">
-      <c r="A141" s="5">
+      <c r="A141" s="2">
         <v>45499</v>
       </c>
     </row>
@@ -26842,7 +26932,7 @@
       </c>
     </row>
     <row r="209" customFormat="1" spans="1:1">
-      <c r="A209" s="5">
+      <c r="A209" s="2">
         <v>45602</v>
       </c>
     </row>
@@ -26867,7 +26957,7 @@
       </c>
     </row>
     <row r="214" customFormat="1" spans="1:1">
-      <c r="A214" s="5">
+      <c r="A214" s="2">
         <v>45609</v>
       </c>
     </row>
